--- a/#Data/01/景区与基站对应关系维表.xlsx
+++ b/#Data/01/景区与基站对应关系维表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AD107A-DBE4-4645-AB79-9EB96E32CBB1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="赛题对应表名" sheetId="13" r:id="rId1"/>
@@ -260,11 +261,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +296,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -345,9 +352,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -357,19 +363,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{0D008A97-C040-4E49-A16F-559A7DCBC027}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -643,130 +687,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.125" customWidth="1"/>
-    <col min="2" max="2" width="44.75" customWidth="1"/>
+    <col min="1" max="1" width="53.109375" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C18" t="s">
@@ -780,270 +824,269 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="tm_signal_user_locus_day!A1" display="tm_signal_user_locus_day"/>
-    <hyperlink ref="B3" location="tm_signal_user_cell_sum_day!A1" display="tm_signal_user_cell_sum_day"/>
-    <hyperlink ref="B4" location="dwpub.td_np_cell_area!A1" display="dwpub.td_np_cell_area"/>
-    <hyperlink ref="B5" location="tc_usr_info_day!A1" display="tc_usr_info_day"/>
-    <hyperlink ref="B6" location="dwmid.tm_an5002_roam!A1" display="dwmid.tm_an5002_roam"/>
-    <hyperlink ref="B7" location="tm_signal_user_locus_day!A1" display="tm_signal_user_locus_day"/>
-    <hyperlink ref="B8" location="tm_signal_user_cell_sum_day!A1" display="tm_signal_user_cell_sum_day"/>
-    <hyperlink ref="B9" location="dwpub.td_np_cell_area!A1" display="dwpub.td_np_cell_area"/>
-    <hyperlink ref="B10" location="tc_usr_info_day!A1" display="tc_usr_info_day"/>
-    <hyperlink ref="B11" location="dwpub.td_np_area_rela!A1" display="dwpub.td_np_area_rela"/>
-    <hyperlink ref="B12" location="dwmid.tm_an5002_roam!A1" display="dwmid.tm_an5002_roam"/>
-    <hyperlink ref="B13" location="dwpub.td_np_province_new!A1" display="dwpub.td_np_province_new"/>
-    <hyperlink ref="B14" location="td_np_dpi_app!A1" display="td_np_dpi_app"/>
-    <hyperlink ref="B15" location="tm_gprs_bh_http_app_device!A1" display="tm_gprs_bh_http_app_device"/>
-    <hyperlink ref="B16" location="tm_gprs_cell_sum_day!A1" display="TM_GPRS_CELL_SUM_DAY"/>
-    <hyperlink ref="B17" location="tm_gsm_cell_sum_day!A1" display="TM_GSM_CELL_SUM_DAY"/>
-    <hyperlink ref="B18" location="dwpub.dim_humtrf_lac_area_info!A1" display="DWPUB.DIM_HUMTRF_LAC_AREA_INFO"/>
+    <hyperlink ref="B2" location="tm_signal_user_locus_day!A1" display="tm_signal_user_locus_day" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="tm_signal_user_cell_sum_day!A1" display="tm_signal_user_cell_sum_day" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="dwpub.td_np_cell_area!A1" display="dwpub.td_np_cell_area" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="tc_usr_info_day!A1" display="tc_usr_info_day" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" location="dwmid.tm_an5002_roam!A1" display="dwmid.tm_an5002_roam" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" location="tm_signal_user_locus_day!A1" display="tm_signal_user_locus_day" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" location="tm_signal_user_cell_sum_day!A1" display="tm_signal_user_cell_sum_day" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" location="dwpub.td_np_cell_area!A1" display="dwpub.td_np_cell_area" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" location="tc_usr_info_day!A1" display="tc_usr_info_day" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" location="dwpub.td_np_area_rela!A1" display="dwpub.td_np_area_rela" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" location="dwmid.tm_an5002_roam!A1" display="dwmid.tm_an5002_roam" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" location="dwpub.td_np_province_new!A1" display="dwpub.td_np_province_new" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" location="td_np_dpi_app!A1" display="td_np_dpi_app" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" location="tm_gprs_bh_http_app_device!A1" display="tm_gprs_bh_http_app_device" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" location="tm_gprs_cell_sum_day!A1" display="TM_GPRS_CELL_SUM_DAY" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" location="tm_gsm_cell_sum_day!A1" display="TM_GSM_CELL_SUM_DAY" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" location="dwpub.dim_humtrf_lac_area_info!A1" display="DWPUB.DIM_HUMTRF_LAC_AREA_INFO" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="37.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="41" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1055,19 +1098,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
